--- a/Plan/Table/Test_Data/03.Character_table.xlsx
+++ b/Plan/Table/Test_Data/03.Character_table.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
-  <workbookPr codeName="현재_통합_문서" defaultThemeVersion="202300"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\인디\FluffyDiscatDevelop\Plan\Table\Test_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{01413BBB-C7A0-4F63-90AA-BBF3E56203C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E1401C70-3354-482C-9F5F-66967C5EFAC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17805" yWindow="3735" windowWidth="15555" windowHeight="8175" xr2:uid="{18DBA9BB-92D5-4926-8A47-2EFF04551EE9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{55E0200D-EC35-441F-9BDE-28D533B78E9C}"/>
   </bookViews>
   <sheets>
     <sheet name="03.Character_table" sheetId="1" r:id="rId1"/>
@@ -442,8 +442,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61745415-82AF-4FAA-B9A0-F3FF2A2B0060}">
-  <sheetPr codeName="Sheet1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{420D6A87-50B8-408E-BB79-DC05A5160680}">
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/Plan/Table/Test_Data/03.Character_table.xlsx
+++ b/Plan/Table/Test_Data/03.Character_table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\인디\FluffyDiscatDevelop\Plan\Table\Test_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E1401C70-3354-482C-9F5F-66967C5EFAC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F3BDE8F4-2757-4CB6-8708-45ACE2B443A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{55E0200D-EC35-441F-9BDE-28D533B78E9C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{885F188B-8ECB-4D87-AB4D-EDE3B0811527}"/>
   </bookViews>
   <sheets>
     <sheet name="03.Character_table" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>id</t>
   </si>
@@ -50,16 +50,43 @@
     <t>tribe</t>
   </si>
   <si>
-    <t>max_HP</t>
+    <t>chr_type</t>
   </si>
   <si>
-    <t>atk</t>
+    <t>job</t>
   </si>
   <si>
-    <t>armor</t>
+    <t>start_item_group</t>
   </si>
   <si>
-    <t>magic_armor</t>
+    <t>start_trait_group</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>basic_stat</t>
+  </si>
+  <si>
+    <t>potential_stat</t>
+  </si>
+  <si>
+    <t>critical</t>
+  </si>
+  <si>
+    <t>cri_dmg</t>
+  </si>
+  <si>
+    <t>attack_speed</t>
+  </si>
+  <si>
+    <t>add_dmg</t>
+  </si>
+  <si>
+    <t>dmg_reduction</t>
+  </si>
+  <si>
+    <t>luck</t>
   </si>
 </sst>
 </file>
@@ -442,16 +469,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{420D6A87-50B8-408E-BB79-DC05A5160680}">
-  <dimension ref="A1:H3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2AAC066-79D2-4884-BDCF-6D7F46EDBD01}">
+  <dimension ref="A1:Q51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H1048576"/>
+      <selection sqref="A1:Q1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -476,8 +503,35 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -491,42 +545,2640 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>10</v>
+      </c>
+      <c r="J2">
+        <v>50</v>
+      </c>
+      <c r="K2">
+        <v>-3.5</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>10</v>
+      </c>
+      <c r="J3">
+        <v>50</v>
+      </c>
+      <c r="K3">
+        <v>-6</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>10</v>
+      </c>
+      <c r="J4">
+        <v>50</v>
+      </c>
+      <c r="K4">
+        <v>135</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>10</v>
+      </c>
+      <c r="J5">
+        <v>75</v>
+      </c>
+      <c r="K5">
+        <v>-8</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="G2">
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>10</v>
+      </c>
+      <c r="J6">
+        <v>110</v>
+      </c>
+      <c r="K6">
+        <v>-10</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>10</v>
+      </c>
+      <c r="J7">
+        <v>50</v>
+      </c>
+      <c r="K7">
+        <v>-3.5</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>10</v>
+      </c>
+      <c r="J8">
+        <v>50</v>
+      </c>
+      <c r="K8">
+        <v>-6</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>10</v>
+      </c>
+      <c r="J9">
+        <v>50</v>
+      </c>
+      <c r="K9">
+        <v>135</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>10</v>
+      </c>
+      <c r="J10">
+        <v>75</v>
+      </c>
+      <c r="K10">
+        <v>-8</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>10</v>
+      </c>
+      <c r="J11">
+        <v>110</v>
+      </c>
+      <c r="K11">
+        <v>-10</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>3</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>10</v>
+      </c>
+      <c r="J12">
+        <v>50</v>
+      </c>
+      <c r="K12">
+        <v>-3.5</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>3</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>10</v>
+      </c>
+      <c r="J13">
+        <v>50</v>
+      </c>
+      <c r="K13">
+        <v>-6</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>3</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>10</v>
+      </c>
+      <c r="J14">
+        <v>50</v>
+      </c>
+      <c r="K14">
+        <v>135</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>3</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>10</v>
+      </c>
+      <c r="J15">
+        <v>75</v>
+      </c>
+      <c r="K15">
+        <v>-8</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>3</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>10</v>
+      </c>
+      <c r="J16">
+        <v>110</v>
+      </c>
+      <c r="K16">
+        <v>-10</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>4</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>10</v>
+      </c>
+      <c r="J17">
+        <v>50</v>
+      </c>
+      <c r="K17">
+        <v>-3.5</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>4</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>10</v>
+      </c>
+      <c r="J18">
+        <v>50</v>
+      </c>
+      <c r="K18">
+        <v>-6</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>4</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>10</v>
+      </c>
+      <c r="J19">
+        <v>50</v>
+      </c>
+      <c r="K19">
+        <v>135</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>4</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>10</v>
+      </c>
+      <c r="J20">
+        <v>75</v>
+      </c>
+      <c r="K20">
+        <v>-8</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>4</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>10</v>
+      </c>
+      <c r="J21">
+        <v>110</v>
+      </c>
+      <c r="K21">
+        <v>-10</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
         <v>5</v>
       </c>
-      <c r="H2">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>10</v>
+      </c>
+      <c r="J22">
+        <v>50</v>
+      </c>
+      <c r="K22">
+        <v>-3.5</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>10</v>
-      </c>
-      <c r="F3">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>10</v>
+      </c>
+      <c r="J23">
+        <v>50</v>
+      </c>
+      <c r="K23">
+        <v>-6</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
         <v>5</v>
       </c>
-      <c r="G3">
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>10</v>
+      </c>
+      <c r="J24">
+        <v>50</v>
+      </c>
+      <c r="K24">
+        <v>135</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
         <v>5</v>
       </c>
-      <c r="H3">
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>10</v>
+      </c>
+      <c r="J25">
+        <v>75</v>
+      </c>
+      <c r="K25">
+        <v>-8</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
         <v>5</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>10</v>
+      </c>
+      <c r="J26">
+        <v>110</v>
+      </c>
+      <c r="K26">
+        <v>-10</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>10</v>
+      </c>
+      <c r="J27">
+        <v>50</v>
+      </c>
+      <c r="K27">
+        <v>-3.5</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>10</v>
+      </c>
+      <c r="J28">
+        <v>50</v>
+      </c>
+      <c r="K28">
+        <v>-6</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="C29">
+        <v>2</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>10</v>
+      </c>
+      <c r="J29">
+        <v>50</v>
+      </c>
+      <c r="K29">
+        <v>135</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>2</v>
+      </c>
+      <c r="C30">
+        <v>2</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>10</v>
+      </c>
+      <c r="J30">
+        <v>75</v>
+      </c>
+      <c r="K30">
+        <v>-8</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>2</v>
+      </c>
+      <c r="C31">
+        <v>2</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>10</v>
+      </c>
+      <c r="J31">
+        <v>110</v>
+      </c>
+      <c r="K31">
+        <v>-10</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>2</v>
+      </c>
+      <c r="C32">
+        <v>2</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>2</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>10</v>
+      </c>
+      <c r="J32">
+        <v>50</v>
+      </c>
+      <c r="K32">
+        <v>-3.5</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>2</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>2</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>10</v>
+      </c>
+      <c r="J33">
+        <v>50</v>
+      </c>
+      <c r="K33">
+        <v>-6</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>2</v>
+      </c>
+      <c r="C34">
+        <v>2</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>2</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>10</v>
+      </c>
+      <c r="J34">
+        <v>50</v>
+      </c>
+      <c r="K34">
+        <v>135</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>2</v>
+      </c>
+      <c r="C35">
+        <v>2</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>2</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>10</v>
+      </c>
+      <c r="J35">
+        <v>75</v>
+      </c>
+      <c r="K35">
+        <v>-8</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>2</v>
+      </c>
+      <c r="C36">
+        <v>2</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>2</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>10</v>
+      </c>
+      <c r="J36">
+        <v>110</v>
+      </c>
+      <c r="K36">
+        <v>-10</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>2</v>
+      </c>
+      <c r="C37">
+        <v>2</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>3</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>10</v>
+      </c>
+      <c r="J37">
+        <v>50</v>
+      </c>
+      <c r="K37">
+        <v>-3.5</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>2</v>
+      </c>
+      <c r="C38">
+        <v>2</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <v>3</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>10</v>
+      </c>
+      <c r="J38">
+        <v>50</v>
+      </c>
+      <c r="K38">
+        <v>-6</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>2</v>
+      </c>
+      <c r="C39">
+        <v>2</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <v>3</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>10</v>
+      </c>
+      <c r="J39">
+        <v>50</v>
+      </c>
+      <c r="K39">
+        <v>135</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <v>0</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>2</v>
+      </c>
+      <c r="C40">
+        <v>2</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40">
+        <v>3</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>10</v>
+      </c>
+      <c r="J40">
+        <v>75</v>
+      </c>
+      <c r="K40">
+        <v>-8</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <v>0</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>2</v>
+      </c>
+      <c r="C41">
+        <v>2</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <v>3</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>10</v>
+      </c>
+      <c r="J41">
+        <v>110</v>
+      </c>
+      <c r="K41">
+        <v>-10</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41">
+        <v>0</v>
+      </c>
+      <c r="N41">
+        <v>0</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>2</v>
+      </c>
+      <c r="C42">
+        <v>2</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42">
+        <v>4</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>10</v>
+      </c>
+      <c r="J42">
+        <v>50</v>
+      </c>
+      <c r="K42">
+        <v>-3.5</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>0</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>2</v>
+      </c>
+      <c r="C43">
+        <v>2</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43">
+        <v>4</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>10</v>
+      </c>
+      <c r="J43">
+        <v>50</v>
+      </c>
+      <c r="K43">
+        <v>-6</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>0</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>2</v>
+      </c>
+      <c r="C44">
+        <v>2</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44">
+        <v>4</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>10</v>
+      </c>
+      <c r="J44">
+        <v>50</v>
+      </c>
+      <c r="K44">
+        <v>135</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>0</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>2</v>
+      </c>
+      <c r="C45">
+        <v>2</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45">
+        <v>4</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>10</v>
+      </c>
+      <c r="J45">
+        <v>75</v>
+      </c>
+      <c r="K45">
+        <v>-8</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>0</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>2</v>
+      </c>
+      <c r="C46">
+        <v>2</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46">
+        <v>4</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>10</v>
+      </c>
+      <c r="J46">
+        <v>110</v>
+      </c>
+      <c r="K46">
+        <v>-10</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>0</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>2</v>
+      </c>
+      <c r="C47">
+        <v>2</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47">
+        <v>5</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>10</v>
+      </c>
+      <c r="J47">
+        <v>50</v>
+      </c>
+      <c r="K47">
+        <v>-3.5</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>0</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47">
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>2</v>
+      </c>
+      <c r="C48">
+        <v>2</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48">
+        <v>5</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>10</v>
+      </c>
+      <c r="J48">
+        <v>50</v>
+      </c>
+      <c r="K48">
+        <v>-6</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>0</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+      <c r="P48">
+        <v>0</v>
+      </c>
+      <c r="Q48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>2</v>
+      </c>
+      <c r="C49">
+        <v>2</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49">
+        <v>5</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>10</v>
+      </c>
+      <c r="J49">
+        <v>50</v>
+      </c>
+      <c r="K49">
+        <v>135</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>0</v>
+      </c>
+      <c r="O49">
+        <v>0</v>
+      </c>
+      <c r="P49">
+        <v>0</v>
+      </c>
+      <c r="Q49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>2</v>
+      </c>
+      <c r="C50">
+        <v>2</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="F50">
+        <v>5</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>10</v>
+      </c>
+      <c r="J50">
+        <v>75</v>
+      </c>
+      <c r="K50">
+        <v>-8</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>0</v>
+      </c>
+      <c r="O50">
+        <v>0</v>
+      </c>
+      <c r="P50">
+        <v>0</v>
+      </c>
+      <c r="Q50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>2</v>
+      </c>
+      <c r="C51">
+        <v>2</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="F51">
+        <v>5</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>10</v>
+      </c>
+      <c r="J51">
+        <v>110</v>
+      </c>
+      <c r="K51">
+        <v>-10</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>0</v>
+      </c>
+      <c r="O51">
+        <v>0</v>
+      </c>
+      <c r="P51">
+        <v>0</v>
+      </c>
+      <c r="Q51">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
